--- a/output/fit_clients/fit_round_347.xlsx
+++ b/output/fit_clients/fit_round_347.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1662712126.906489</v>
+        <v>1625452046.722687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08790738210730234</v>
+        <v>0.1090388024514989</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03800638908742562</v>
+        <v>0.03683500783105562</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>831356013.7896974</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1689201203.433547</v>
+        <v>2475059587.285117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1481602817660183</v>
+        <v>0.1509423353887064</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04803663224652471</v>
+        <v>0.03078329140951361</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>844600593.6506763</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3210999316.313964</v>
+        <v>4026704278.102759</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1046113386540389</v>
+        <v>0.1258656594846057</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03444172511345238</v>
+        <v>0.03544844454176113</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>125</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1605499616.443318</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3716322384.581305</v>
+        <v>3969503316.263844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06979487064075052</v>
+        <v>0.06885086034459667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03635675325470214</v>
+        <v>0.04406218658393886</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1858161214.732279</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2338828511.180127</v>
+        <v>2694172304.038834</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1249381139442405</v>
+        <v>0.1349555334855089</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04672135530077716</v>
+        <v>0.05246612607167617</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1169414248.524241</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2141386609.616879</v>
+        <v>1983029462.053611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08053035110691152</v>
+        <v>0.07906540131768991</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03651973111909337</v>
+        <v>0.0395466549030529</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>109</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1070693352.333467</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2404322074.11102</v>
+        <v>3879252030.227922</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1508682115388979</v>
+        <v>0.1781695341428831</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03076981816215634</v>
+        <v>0.03025433479867756</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>111</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1202161033.680016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1723303993.602202</v>
+        <v>1404264638.966062</v>
       </c>
       <c r="F9" t="n">
-        <v>0.174691867736239</v>
+        <v>0.1533301616404145</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02468123160721522</v>
+        <v>0.0294971026440312</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>861652061.8027133</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4162626051.894083</v>
+        <v>4039611254.079036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1689220923654191</v>
+        <v>0.2050961850917327</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05236845434757087</v>
+        <v>0.05188483217126608</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>146</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2081313060.468339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3852934758.068528</v>
+        <v>2940494893.346834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1557360960216258</v>
+        <v>0.1825943027709127</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04286581010479526</v>
+        <v>0.03482539326900087</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>143</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1926467381.446355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2047197773.71734</v>
+        <v>3154274860.520282</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1409914187467068</v>
+        <v>0.1602563259389826</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04217551853091362</v>
+        <v>0.03826220575005611</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>119</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1023598817.629889</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4058385584.709067</v>
+        <v>5353945563.661858</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07851026112434811</v>
+        <v>0.09061110168604521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.020076152287405</v>
+        <v>0.02627587959255677</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>117</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2029192844.322132</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3374261218.517179</v>
+        <v>3893167998.933513</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1697269750241261</v>
+        <v>0.1683785190058796</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0402398837058176</v>
+        <v>0.0406956514976623</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1687130616.599556</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1700547286.806712</v>
+        <v>1671685762.232378</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0756837100410185</v>
+        <v>0.1006615420024017</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04716037831419892</v>
+        <v>0.043556003126673</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>850273774.3888556</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1798961525.009915</v>
+        <v>2080774459.029626</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09920786963044767</v>
+        <v>0.1013119436867579</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04752600201901398</v>
+        <v>0.04716680024152979</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>69</v>
-      </c>
-      <c r="J16" t="n">
-        <v>899480855.9564062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3432639824.057297</v>
+        <v>5083862627.604332</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1394864403158231</v>
+        <v>0.1391411193287338</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03603703293657321</v>
+        <v>0.04296019164371199</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1716319974.698334</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3931801511.40153</v>
+        <v>3903317374.877509</v>
       </c>
       <c r="F18" t="n">
-        <v>0.166332969757145</v>
+        <v>0.1449177709294485</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02790395532844973</v>
+        <v>0.03004318596557612</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>113</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1965900718.477539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1254195896.809139</v>
+        <v>1242167162.079053</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1437855526769414</v>
+        <v>0.1333037416023109</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02172425175818693</v>
+        <v>0.02063909790302199</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>627098039.5103978</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2608689306.579896</v>
+        <v>2349862691.758461</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09933636235303664</v>
+        <v>0.1532111827683082</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03184750701351947</v>
+        <v>0.02447905659932645</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1304344614.806759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2091952656.447334</v>
+        <v>2093940682.920927</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0974446311621545</v>
+        <v>0.08279686161336761</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03305789906094604</v>
+        <v>0.04060686977426219</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1045976355.364623</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3039271577.233415</v>
+        <v>2531260963.958682</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09313732320842755</v>
+        <v>0.09811604011805684</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04863547169574489</v>
+        <v>0.03909617279946322</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1519635847.805716</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1250467115.306465</v>
+        <v>1415636847.733073</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1591266024803824</v>
+        <v>0.1459462153903698</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03912683426356297</v>
+        <v>0.05484643212156886</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>625233585.6626161</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2888244329.876701</v>
+        <v>3665768192.508606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09452301535885736</v>
+        <v>0.1179265507464438</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03700548453519305</v>
+        <v>0.03059702266272112</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>101</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1444122207.688594</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1263997256.086255</v>
+        <v>911622364.4795203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09584278991000823</v>
+        <v>0.0823044343973537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02855363366822011</v>
+        <v>0.02111309719873531</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>631998631.3008966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>877535968.5215509</v>
+        <v>1436284347.144479</v>
       </c>
       <c r="F26" t="n">
-        <v>0.112747265310243</v>
+        <v>0.1113107166120853</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03906415703241448</v>
+        <v>0.02681315739073425</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>438767926.364363</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2888808862.56345</v>
+        <v>3996858061.554699</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1156864110928305</v>
+        <v>0.1236232805457685</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01912453306964148</v>
+        <v>0.02500682585502375</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1444404496.662925</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3697492591.569128</v>
+        <v>2903587994.745261</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1135014350126441</v>
+        <v>0.09922891492035762</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0312177796178401</v>
+        <v>0.03878757363855243</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1848746367.555249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5411257254.386672</v>
+        <v>5717535993.904091</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1412412088132216</v>
+        <v>0.1254170723435933</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03392924617248357</v>
+        <v>0.03933758364415489</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>153</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2705628546.234217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2301558594.557149</v>
+        <v>1559736062.276332</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1184957192054077</v>
+        <v>0.1342714065985929</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02944429569927474</v>
+        <v>0.03321924980367312</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1150779369.065123</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>968621100.0539616</v>
+        <v>1287677946.654539</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07379613425055107</v>
+        <v>0.07138741605260081</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04124158418714826</v>
+        <v>0.03821524776703854</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>484310555.9595731</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1606845604.465709</v>
+        <v>1612297509.326176</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1082409897178416</v>
+        <v>0.08106387746771025</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02513117849633841</v>
+        <v>0.02917792019613418</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>803422892.7276164</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2366606009.243918</v>
+        <v>2348577776.184466</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1643789479917501</v>
+        <v>0.1567770501347323</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03750159019972257</v>
+        <v>0.0383087937402259</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>106</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1183303054.200514</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1282428421.154553</v>
+        <v>999032309.0717889</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07495744469785602</v>
+        <v>0.09098404217535064</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01998410372916624</v>
+        <v>0.0183998262113737</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>641214202.1267493</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1154820549.215694</v>
+        <v>934775119.1755915</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0959903535602236</v>
+        <v>0.0751860166278614</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03014919224114317</v>
+        <v>0.02959184432212725</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>577410259.2368073</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2787006897.167399</v>
+        <v>2939851462.325603</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1214295169098384</v>
+        <v>0.1420054497904091</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02439810832169395</v>
+        <v>0.02034668805275915</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1393503447.551186</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2526444050.666284</v>
+        <v>2456562325.543458</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09327485394155038</v>
+        <v>0.1105332797625001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03227020025160251</v>
+        <v>0.03534449911545878</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1263222125.044818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2021869271.874173</v>
+        <v>1633108408.321309</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1226411122610454</v>
+        <v>0.09939950249479966</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03309685398610012</v>
+        <v>0.02894815761961006</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1010934611.479502</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1908439842.80908</v>
+        <v>2170018430.354659</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1794298468987751</v>
+        <v>0.1255481732236531</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03261525456331503</v>
+        <v>0.03135013637053175</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>954219929.8541108</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1518555556.072621</v>
+        <v>1475362555.255341</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1565392233513904</v>
+        <v>0.1435404108835684</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05632533525243467</v>
+        <v>0.04722653051593947</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>759277739.5997274</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2044129033.614892</v>
+        <v>2065729388.472152</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1106037709419126</v>
+        <v>0.1634926597509573</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03007589213664784</v>
+        <v>0.0348546522356769</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1022064586.722505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2949248747.187411</v>
+        <v>3874685239.684823</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09889108548931444</v>
+        <v>0.09009763435227382</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03881698597643333</v>
+        <v>0.04649975809885018</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1474624330.542224</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2761017357.307878</v>
+        <v>2502969451.761734</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1388940542449933</v>
+        <v>0.1990030627755324</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02253903638152797</v>
+        <v>0.01981980006938394</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>124</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1380508701.062267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1651190314.814906</v>
+        <v>1875289531.196753</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1021327349562583</v>
+        <v>0.07938505462621123</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02776591604739584</v>
+        <v>0.03718459415742816</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>825595194.1529126</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1695531085.591161</v>
+        <v>1887085088.935518</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1520721342031209</v>
+        <v>0.117765465159613</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05284609078961065</v>
+        <v>0.0449410837270947</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>847765502.9701121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5013544921.634899</v>
+        <v>5271167081.585568</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1403443038977383</v>
+        <v>0.1609102550250186</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04828202161171105</v>
+        <v>0.05764744721534331</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>124</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2506772488.426452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3780761425.117392</v>
+        <v>4798488717.627937</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1495425036857912</v>
+        <v>0.160157455935579</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05894678160796175</v>
+        <v>0.05177659935132999</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>94</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1890380699.260157</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3267967522.309141</v>
+        <v>4615451685.21142</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07046672435038298</v>
+        <v>0.0715014663623826</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03867476728993686</v>
+        <v>0.02865919352680552</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1633983838.058109</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1823489890.458781</v>
+        <v>1837724946.488963</v>
       </c>
       <c r="F49" t="n">
-        <v>0.122976041292854</v>
+        <v>0.1665111200275575</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0424831517196114</v>
+        <v>0.04102041407026155</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>911744926.9788592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3523365651.96723</v>
+        <v>3097451518.424341</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1769896014972299</v>
+        <v>0.1096504289461186</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03961455045309904</v>
+        <v>0.04278369670593486</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>119</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1761682848.607678</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1163302606.774593</v>
+        <v>1069977050.174368</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1231147615259889</v>
+        <v>0.1481796129794929</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04459660626173712</v>
+        <v>0.04634893494268465</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>581651360.8868389</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4716875810.737274</v>
+        <v>4083848824.468095</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1381922766562732</v>
+        <v>0.1363952009887947</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0429711240390734</v>
+        <v>0.04916508254754249</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>143</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2358437919.662333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2737217820.461574</v>
+        <v>2821342039.025654</v>
       </c>
       <c r="F53" t="n">
-        <v>0.180343939412757</v>
+        <v>0.1407428631106726</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0350203467144909</v>
+        <v>0.02650618776650015</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1368608960.839048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4544579906.680782</v>
+        <v>3034429623.559223</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1297770744799347</v>
+        <v>0.1220383039140033</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03781590826159282</v>
+        <v>0.05193431263108948</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2272290060.165819</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3628222148.784097</v>
+        <v>4497201347.563021</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1354371709542491</v>
+        <v>0.2039591470632217</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03164347844943691</v>
+        <v>0.02991193772537691</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1814111032.884534</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1159578674.394057</v>
+        <v>1860034511.28741</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1274892918179281</v>
+        <v>0.1365665568020677</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05368036175865966</v>
+        <v>0.04182834512857068</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>579789429.9140842</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3132539118.635571</v>
+        <v>4239100972.034446</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1500316380855287</v>
+        <v>0.1448222190246629</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02341695061700371</v>
+        <v>0.01972941483154495</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>111</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1566269574.857766</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1669416527.034557</v>
+        <v>1873352211.808042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1669076352984943</v>
+        <v>0.1389403649086562</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02932367533211782</v>
+        <v>0.02505149069831373</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>834708279.1963422</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3812675667.710531</v>
+        <v>5191328875.696006</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1226567588399549</v>
+        <v>0.09262541602249524</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03342641368170345</v>
+        <v>0.04322502739060295</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>95</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1906337818.852242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3395075350.572036</v>
+        <v>3256936473.167812</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1343196568621439</v>
+        <v>0.2065851895756598</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02273672123608061</v>
+        <v>0.02251716366985197</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1697537787.086447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3038414731.977276</v>
+        <v>2896911841.635816</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1747698172379981</v>
+        <v>0.1347933383658575</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03028691089321217</v>
+        <v>0.02792744403352528</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>119</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1519207342.83549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2039048713.190698</v>
+        <v>1913241491.182496</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1431659482040773</v>
+        <v>0.1498918011927222</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04100307002051929</v>
+        <v>0.04733948793252575</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1019524420.543512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3944929419.444731</v>
+        <v>3483490833.395754</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08231271738492855</v>
+        <v>0.08616468643900609</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02896678694976523</v>
+        <v>0.03752541210795298</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>99</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1972464774.596573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3566741171.850055</v>
+        <v>4351266830.052493</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1642387362124589</v>
+        <v>0.1293177451514533</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02841271569975204</v>
+        <v>0.03267291589643825</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>109</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1783370591.318605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4698875148.889985</v>
+        <v>5407287064.663824</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1714077556501326</v>
+        <v>0.1687290010552002</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02436071266261656</v>
+        <v>0.0301336145786385</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>125</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2349437551.337334</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3880097331.443955</v>
+        <v>4877902210.838916</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1428169612710084</v>
+        <v>0.1273397615811595</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04503032784826932</v>
+        <v>0.03493398668863696</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1940048632.925723</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2192326366.158043</v>
+        <v>2921369038.326139</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07522728216902795</v>
+        <v>0.08126555479831089</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0332901589809872</v>
+        <v>0.04207614856969388</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>112</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1096163269.755348</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3817562222.344965</v>
+        <v>6003094270.436978</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1179879374424038</v>
+        <v>0.1028845572142848</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04528781118733959</v>
+        <v>0.04794232879639855</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1908781095.913583</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2446670801.594478</v>
+        <v>2377945887.292783</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1747739693247675</v>
+        <v>0.1179489785624781</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05197361193809071</v>
+        <v>0.05443327487015262</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1223335463.49289</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2598230840.530196</v>
+        <v>3314616350.391273</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07324392086733621</v>
+        <v>0.07730686780150783</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04906614422436615</v>
+        <v>0.03239254396553534</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>99</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1299115371.076109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4394356694.447515</v>
+        <v>3579177407.474638</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1344979159909226</v>
+        <v>0.148780486802244</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03112211297889572</v>
+        <v>0.02576899334264469</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>127</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2197178407.725043</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1709496380.77522</v>
+        <v>1991686769.438443</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08808711763724915</v>
+        <v>0.06896191635445964</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04813043738478309</v>
+        <v>0.03764936193925631</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>854748183.6097143</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3352312576.505014</v>
+        <v>2512306839.702922</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08282655881398937</v>
+        <v>0.06790863125963928</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03468644181387251</v>
+        <v>0.04801129856463575</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>132</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1676156251.987682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3138438059.266231</v>
+        <v>2495883397.507575</v>
       </c>
       <c r="F74" t="n">
-        <v>0.128224279750155</v>
+        <v>0.1830350535040371</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02541589452705073</v>
+        <v>0.03054431617444227</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>118</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1569219083.09332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2347716730.186286</v>
+        <v>2246583219.731067</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1365881511410543</v>
+        <v>0.1371352171119332</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02409699558014363</v>
+        <v>0.03732665776107823</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1173858296.68733</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3941698542.572814</v>
+        <v>4366829900.527714</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1032959299856948</v>
+        <v>0.0870671089684317</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02630571359393805</v>
+        <v>0.02418017373864178</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1970849253.568277</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2278381420.856236</v>
+        <v>2103288284.978565</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1862983181118388</v>
+        <v>0.1438895475502449</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0194901286127304</v>
+        <v>0.01990727288484853</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1139190813.033469</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3792042032.543573</v>
+        <v>4098041675.599424</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1200076474553245</v>
+        <v>0.09465562966598</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05355661409712405</v>
+        <v>0.04174508579099322</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>121</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1896020996.904168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1801614193.898712</v>
+        <v>1675884770.318667</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1720314339546312</v>
+        <v>0.1346941096233021</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03194779688643684</v>
+        <v>0.02648258489948904</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>900807183.9221908</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4879754809.703175</v>
+        <v>3389074102.138984</v>
       </c>
       <c r="F80" t="n">
-        <v>0.104976747439146</v>
+        <v>0.08147769041833582</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02672914244484702</v>
+        <v>0.0331303390683429</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2439877448.078448</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4037840161.508585</v>
+        <v>3788500704.776935</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1016663977104341</v>
+        <v>0.1285480452629134</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03150480858547382</v>
+        <v>0.02873833150854516</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2018920045.360145</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4611261714.345359</v>
+        <v>5262458135.074145</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1988550905679352</v>
+        <v>0.1598060079254265</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02032920214551438</v>
+        <v>0.02751230050312792</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>121</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2305630862.833245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1709054402.14815</v>
+        <v>2252142062.595264</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1267893090116442</v>
+        <v>0.1309702395632484</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03044265317850386</v>
+        <v>0.03194414304838825</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>854527150.1842624</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2531456427.73761</v>
+        <v>2304291699.559038</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1007668350973238</v>
+        <v>0.1046790290541072</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04445394749455487</v>
+        <v>0.04087175900850969</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1265728141.059125</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3253214162.35442</v>
+        <v>2449260945.403014</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1832551159968616</v>
+        <v>0.1400384595695539</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05203692832046249</v>
+        <v>0.05074593333694605</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>130</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1626607169.274942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1703705099.362029</v>
+        <v>1709316131.576362</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1636933747966124</v>
+        <v>0.1341013873870676</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01667105024285781</v>
+        <v>0.02469735357727828</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>851852536.1103541</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1302102208.387431</v>
+        <v>1117475242.530146</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1623444690720228</v>
+        <v>0.1802367202389279</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03965894769912695</v>
+        <v>0.03729780132719853</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>651051185.9715275</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3562056450.220405</v>
+        <v>2272823646.260184</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1687992498756027</v>
+        <v>0.1466477366182935</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03727582268325995</v>
+        <v>0.03698715060620863</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>137</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1781028311.12289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2526732222.834177</v>
+        <v>3256339985.012636</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1259962516417802</v>
+        <v>0.1075743651672412</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03646068588199874</v>
+        <v>0.03083197616002567</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>118</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1263366184.215566</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1958318070.92855</v>
+        <v>2132586387.231383</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09515137295989343</v>
+        <v>0.1125610972303844</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04274656013254308</v>
+        <v>0.0346720451769742</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>979159098.0872365</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1412604586.453252</v>
+        <v>1293985767.551044</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1535110855998199</v>
+        <v>0.1836369861412046</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04435062056178132</v>
+        <v>0.0539926059200878</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>706302343.8229566</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2777562878.177221</v>
+        <v>2751676602.833617</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07150791717082472</v>
+        <v>0.09724893755649686</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03902789345133585</v>
+        <v>0.04019017408850965</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>93</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1388781444.007354</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4797704588.597692</v>
+        <v>3235113236.458043</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1257994062352238</v>
+        <v>0.105897131688635</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03747304914949914</v>
+        <v>0.03474211586772414</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2398852243.342615</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2197581293.316839</v>
+        <v>2069692594.135544</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1415447766991523</v>
+        <v>0.1593103284900743</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03040230363083818</v>
+        <v>0.04223557459540221</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1098790670.745592</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2873798097.265046</v>
+        <v>2304984635.640871</v>
       </c>
       <c r="F95" t="n">
-        <v>0.128709265898748</v>
+        <v>0.1141234846318372</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04531610405088721</v>
+        <v>0.04038843088548843</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1436899057.530855</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1878467806.459826</v>
+        <v>2175058107.63429</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1085443801648137</v>
+        <v>0.1140361121680908</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03440261255826146</v>
+        <v>0.02983975814551844</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>939233903.2037952</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3826746412.023957</v>
+        <v>3400752065.404061</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1432206748992622</v>
+        <v>0.1588858630804469</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02515095746674074</v>
+        <v>0.02811337041676669</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>111</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1913373248.475367</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2829205025.332319</v>
+        <v>3323452730.812071</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1082860875096655</v>
+        <v>0.08936705423088281</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02314640327695898</v>
+        <v>0.02772766686247289</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>93</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1414602485.817897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2991319885.887331</v>
+        <v>2432963671.756629</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1378648493070211</v>
+        <v>0.1271014032248834</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03476747830947206</v>
+        <v>0.03545678810039848</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1495659928.27966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2956746527.425032</v>
+        <v>3191492320.596282</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1436501657674655</v>
+        <v>0.1245387290008907</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01779204603107194</v>
+        <v>0.02254601600972763</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>106</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1478373251.114399</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3556771987.994675</v>
+        <v>2414098543.560028</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1585055200611007</v>
+        <v>0.1757869122648613</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05435906115149185</v>
+        <v>0.04953103451095534</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>140</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1778386156.646692</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_347.xlsx
+++ b/output/fit_clients/fit_round_347.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1625452046.722687</v>
+        <v>1834671761.664451</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1090388024514989</v>
+        <v>0.09024656161530162</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03683500783105562</v>
+        <v>0.02970303406061073</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2475059587.285117</v>
+        <v>2368083214.41311</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1509423353887064</v>
+        <v>0.1680948401118051</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03078329140951361</v>
+        <v>0.03763765461633992</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4026704278.102759</v>
+        <v>4087074257.6207</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1258656594846057</v>
+        <v>0.1331871600660541</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03544844454176113</v>
+        <v>0.02682513756626271</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3969503316.263844</v>
+        <v>4176709024.065029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06885086034459667</v>
+        <v>0.09765058062788794</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04406218658393886</v>
+        <v>0.04086132602726529</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2694172304.038834</v>
+        <v>2526556750.4908</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1349555334855089</v>
+        <v>0.1134436547544673</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05246612607167617</v>
+        <v>0.03805668099429257</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1983029462.053611</v>
+        <v>2635978588.127436</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07906540131768991</v>
+        <v>0.1009546721470509</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0395466549030529</v>
+        <v>0.03134197524265096</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3879252030.227922</v>
+        <v>2721875666.971169</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1781695341428831</v>
+        <v>0.1803572354403201</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03025433479867756</v>
+        <v>0.02058290990727335</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1404264638.966062</v>
+        <v>2053554611.128401</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1533301616404145</v>
+        <v>0.1466383901929618</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0294971026440312</v>
+        <v>0.02689489462295041</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4039611254.079036</v>
+        <v>5457970464.928133</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2050961850917327</v>
+        <v>0.1946654794345166</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05188483217126608</v>
+        <v>0.04692695943216312</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2940494893.346834</v>
+        <v>4107357132.597148</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1825943027709127</v>
+        <v>0.1336467208097063</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03482539326900087</v>
+        <v>0.03405316436636181</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3154274860.520282</v>
+        <v>3234094407.324949</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1602563259389826</v>
+        <v>0.1271611813245824</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03826220575005611</v>
+        <v>0.03636202043071785</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5353945563.661858</v>
+        <v>4839928727.141267</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09061110168604521</v>
+        <v>0.09205894544119589</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02627587959255677</v>
+        <v>0.01953547726625327</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3893167998.933513</v>
+        <v>3694033266.584846</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1683785190058796</v>
+        <v>0.1257654239090633</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0406956514976623</v>
+        <v>0.03998449424548492</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1671685762.232378</v>
+        <v>1353709516.943407</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1006615420024017</v>
+        <v>0.08807855407088831</v>
       </c>
       <c r="G15" t="n">
-        <v>0.043556003126673</v>
+        <v>0.03336409265279236</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2080774459.029626</v>
+        <v>2549531127.560008</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1013119436867579</v>
+        <v>0.07563110241174653</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04716680024152979</v>
+        <v>0.04110710227292157</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5083862627.604332</v>
+        <v>5306465008.56856</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1391411193287338</v>
+        <v>0.1393080081220419</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04296019164371199</v>
+        <v>0.04065590029472065</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3903317374.877509</v>
+        <v>3951374744.772257</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1449177709294485</v>
+        <v>0.1275825473627376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03004318596557612</v>
+        <v>0.03244714567680523</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1242167162.079053</v>
+        <v>1232345467.033942</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1333037416023109</v>
+        <v>0.1396211686147793</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02063909790302199</v>
+        <v>0.02513646292518136</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2349862691.758461</v>
+        <v>2635326659.617389</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1532111827683082</v>
+        <v>0.1564534122912523</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02447905659932645</v>
+        <v>0.03155571510076029</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2093940682.920927</v>
+        <v>2511685189.610378</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08279686161336761</v>
+        <v>0.09288276152286634</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04060686977426219</v>
+        <v>0.03403037011672003</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2531260963.958682</v>
+        <v>3866786791.938728</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09811604011805684</v>
+        <v>0.1091287762835506</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03909617279946322</v>
+        <v>0.04121421809161366</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1415636847.733073</v>
+        <v>1317494101.991849</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1459462153903698</v>
+        <v>0.138764335292767</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05484643212156886</v>
+        <v>0.05431113802285129</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3665768192.508606</v>
+        <v>2740691216.664401</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1179265507464438</v>
+        <v>0.1137184648765876</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03059702266272112</v>
+        <v>0.03030220966877135</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>911622364.4795203</v>
+        <v>1044271730.847972</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0823044343973537</v>
+        <v>0.1015880227116825</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02111309719873531</v>
+        <v>0.02245372233810458</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1436284347.144479</v>
+        <v>1198108199.196257</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1113107166120853</v>
+        <v>0.08144865811174352</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02681315739073425</v>
+        <v>0.0371720709073536</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3996858061.554699</v>
+        <v>4599174256.273069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1236232805457685</v>
+        <v>0.1156248260397224</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02500682585502375</v>
+        <v>0.02608179126451974</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2903587994.745261</v>
+        <v>2660103938.167414</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09922891492035762</v>
+        <v>0.102989987672383</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03878757363855243</v>
+        <v>0.03126621175904989</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5717535993.904091</v>
+        <v>3637975505.077718</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1254170723435933</v>
+        <v>0.1448144881961649</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03933758364415489</v>
+        <v>0.0335255315306237</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1559736062.276332</v>
+        <v>1776817584.50129</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1342714065985929</v>
+        <v>0.1397012714385199</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03321924980367312</v>
+        <v>0.02665054005899743</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1287677946.654539</v>
+        <v>1227885792.015382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07138741605260081</v>
+        <v>0.07703183515620075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03821524776703854</v>
+        <v>0.03446576425536059</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1612297509.326176</v>
+        <v>1410449485.205696</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08106387746771025</v>
+        <v>0.1174751498407134</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02917792019613418</v>
+        <v>0.034283409175157</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2348577776.184466</v>
+        <v>2726388245.022833</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1567770501347323</v>
+        <v>0.1910232621575787</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0383087937402259</v>
+        <v>0.06103605923182071</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>999032309.0717889</v>
+        <v>1010794571.359141</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09098404217535064</v>
+        <v>0.1211830119958871</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0183998262113737</v>
+        <v>0.01713979178720045</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>934775119.1755915</v>
+        <v>1026848502.0589</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0751860166278614</v>
+        <v>0.1102804162876142</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02959184432212725</v>
+        <v>0.0296434967730414</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2939851462.325603</v>
+        <v>3166600517.437562</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1420054497904091</v>
+        <v>0.1632202720910093</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02034668805275915</v>
+        <v>0.0242573443451769</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2456562325.543458</v>
+        <v>2372562537.726225</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1105332797625001</v>
+        <v>0.08556919445122085</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03534449911545878</v>
+        <v>0.04234984821293592</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1633108408.321309</v>
+        <v>1324519181.657371</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09939950249479966</v>
+        <v>0.07543693482407898</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02894815761961006</v>
+        <v>0.03136428467999917</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2170018430.354659</v>
+        <v>2079852161.393533</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1255481732236531</v>
+        <v>0.1364421962821601</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03135013637053175</v>
+        <v>0.03013345987809197</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1475362555.255341</v>
+        <v>1636585191.964016</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1435404108835684</v>
+        <v>0.1558156330833441</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04722653051593947</v>
+        <v>0.04704055042867084</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2065729388.472152</v>
+        <v>2135022843.994523</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1634926597509573</v>
+        <v>0.1535583697975127</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0348546522356769</v>
+        <v>0.03462938650598581</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3874685239.684823</v>
+        <v>2945928715.937566</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09009763435227382</v>
+        <v>0.1050812532995607</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04649975809885018</v>
+        <v>0.0386212419285697</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2502969451.761734</v>
+        <v>1869175938.840997</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1990030627755324</v>
+        <v>0.1573233228257646</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01981980006938394</v>
+        <v>0.01974097949787139</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1875289531.196753</v>
+        <v>1691131238.368209</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07938505462621123</v>
+        <v>0.06910629830579228</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03718459415742816</v>
+        <v>0.02526134588832898</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1887085088.935518</v>
+        <v>2044038073.140575</v>
       </c>
       <c r="F45" t="n">
-        <v>0.117765465159613</v>
+        <v>0.1283383316989982</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0449410837270947</v>
+        <v>0.03935650567322199</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5271167081.585568</v>
+        <v>3797025304.379086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1609102550250186</v>
+        <v>0.1355951486414893</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05764744721534331</v>
+        <v>0.05067730431294856</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4798488717.627937</v>
+        <v>4644593434.458375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.160157455935579</v>
+        <v>0.1447916108293936</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05177659935132999</v>
+        <v>0.05838102816152897</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4615451685.21142</v>
+        <v>4555707299.013248</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0715014663623826</v>
+        <v>0.09278822545589749</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02865919352680552</v>
+        <v>0.02821275300137474</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1837724946.488963</v>
+        <v>1785550115.222296</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1665111200275575</v>
+        <v>0.1431785460672351</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04102041407026155</v>
+        <v>0.03400218601371368</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3097451518.424341</v>
+        <v>4126577378.889638</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1096504289461186</v>
+        <v>0.113914243016537</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04278369670593486</v>
+        <v>0.03860444094869325</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1069977050.174368</v>
+        <v>1487209919.07418</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1481796129794929</v>
+        <v>0.1659521163077794</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04634893494268465</v>
+        <v>0.03505290370552618</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4083848824.468095</v>
+        <v>5029746137.373022</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1363952009887947</v>
+        <v>0.103464559949158</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04916508254754249</v>
+        <v>0.04495542875139258</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2821342039.025654</v>
+        <v>3116840247.355516</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1407428631106726</v>
+        <v>0.1804158648627437</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02650618776650015</v>
+        <v>0.02520083289591204</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3034429623.559223</v>
+        <v>3516474974.225374</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1220383039140033</v>
+        <v>0.1068299738272134</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05193431263108948</v>
+        <v>0.03561726783450901</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4497201347.563021</v>
+        <v>4990571894.374368</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2039591470632217</v>
+        <v>0.1466953361688008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02991193772537691</v>
+        <v>0.03106557980816045</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1860034511.28741</v>
+        <v>1202615961.42618</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1365665568020677</v>
+        <v>0.138367730021147</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04182834512857068</v>
+        <v>0.05580748399640068</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4239100972.034446</v>
+        <v>4344745798.996509</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1448222190246629</v>
+        <v>0.1275228143973467</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01972941483154495</v>
+        <v>0.01940530415675363</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1873352211.808042</v>
+        <v>1160811002.614142</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1389403649086562</v>
+        <v>0.127313651938419</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02505149069831373</v>
+        <v>0.03527687977345254</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5191328875.696006</v>
+        <v>5280566025.860302</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09262541602249524</v>
+        <v>0.09439517029982121</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04322502739060295</v>
+        <v>0.04899834209773709</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3256936473.167812</v>
+        <v>3154035709.167287</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2065851895756598</v>
+        <v>0.1302929658600512</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02251716366985197</v>
+        <v>0.02221964584587617</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2896911841.635816</v>
+        <v>2125207980.261613</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1347933383658575</v>
+        <v>0.1154037064836245</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02792744403352528</v>
+        <v>0.02101162844693507</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1913241491.182496</v>
+        <v>1481080987.419878</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1498918011927222</v>
+        <v>0.1247140779557889</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04733948793252575</v>
+        <v>0.0489154164356802</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3483490833.395754</v>
+        <v>5464841545.817134</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08616468643900609</v>
+        <v>0.1030454212207494</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03752541210795298</v>
+        <v>0.03669388511527985</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4351266830.052493</v>
+        <v>3663977137.749246</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1293177451514533</v>
+        <v>0.1863482286985572</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03267291589643825</v>
+        <v>0.02196274876446463</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5407287064.663824</v>
+        <v>5665586974.230368</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1687290010552002</v>
+        <v>0.1672328067789177</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0301336145786385</v>
+        <v>0.02209735576552163</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4877902210.838916</v>
+        <v>3510434629.891205</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1273397615811595</v>
+        <v>0.1097052057990216</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03493398668863696</v>
+        <v>0.03577455909339902</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2921369038.326139</v>
+        <v>2511137322.382576</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08126555479831089</v>
+        <v>0.08252688329022201</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04207614856969388</v>
+        <v>0.05124060100121209</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6003094270.436978</v>
+        <v>5012650849.547867</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1028845572142848</v>
+        <v>0.1528724344805426</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04794232879639855</v>
+        <v>0.04589196344816137</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2377945887.292783</v>
+        <v>1710592250.242733</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1179489785624781</v>
+        <v>0.1508431407202414</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05443327487015262</v>
+        <v>0.03958020259485955</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3314616350.391273</v>
+        <v>3695438312.506012</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07730686780150783</v>
+        <v>0.09517433611662203</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03239254396553534</v>
+        <v>0.04204373198581423</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3579177407.474638</v>
+        <v>4644755348.768307</v>
       </c>
       <c r="F71" t="n">
-        <v>0.148780486802244</v>
+        <v>0.1750870524368291</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02576899334264469</v>
+        <v>0.02094310957249469</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1991686769.438443</v>
+        <v>2100370649.598754</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06896191635445964</v>
+        <v>0.1067882561338487</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03764936193925631</v>
+        <v>0.04543415097824496</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2512306839.702922</v>
+        <v>2567518501.303592</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06790863125963928</v>
+        <v>0.08578496415026929</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04801129856463575</v>
+        <v>0.04461218902371288</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2495883397.507575</v>
+        <v>3495562629.668592</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1830350535040371</v>
+        <v>0.1847171653035899</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03054431617444227</v>
+        <v>0.02697833828306605</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2246583219.731067</v>
+        <v>1894213056.118456</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1371352171119332</v>
+        <v>0.1121762902245304</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03732665776107823</v>
+        <v>0.03539872376282403</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4366829900.527714</v>
+        <v>4601601094.953759</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0870671089684317</v>
+        <v>0.07740785257210402</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02418017373864178</v>
+        <v>0.02700885626866698</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2103288284.978565</v>
+        <v>2273928912.057045</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1438895475502449</v>
+        <v>0.1533931664489993</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01990727288484853</v>
+        <v>0.03004956559360102</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4098041675.599424</v>
+        <v>4176924655.459338</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09465562966598</v>
+        <v>0.1226386191367794</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04174508579099322</v>
+        <v>0.04005434422071146</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1675884770.318667</v>
+        <v>1169220854.291887</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1346941096233021</v>
+        <v>0.1670803767902512</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02648258489948904</v>
+        <v>0.03960304215903628</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3389074102.138984</v>
+        <v>3448313661.27497</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08147769041833582</v>
+        <v>0.104188549231469</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0331303390683429</v>
+        <v>0.0314948731676869</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3788500704.776935</v>
+        <v>4007811823.048509</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1285480452629134</v>
+        <v>0.09236651888791492</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02873833150854516</v>
+        <v>0.02364890926100314</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5262458135.074145</v>
+        <v>4480618039.067955</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1598060079254265</v>
+        <v>0.1494064116842983</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02751230050312792</v>
+        <v>0.02039544043436458</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2252142062.595264</v>
+        <v>1845087644.660739</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1309702395632484</v>
+        <v>0.1013805630299484</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03194414304838825</v>
+        <v>0.02964162278033619</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2304291699.559038</v>
+        <v>1849189391.220452</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1046790290541072</v>
+        <v>0.1019913907713654</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04087175900850969</v>
+        <v>0.04306969291822083</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2449260945.403014</v>
+        <v>2964677608.643853</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1400384595695539</v>
+        <v>0.1536826362396117</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05074593333694605</v>
+        <v>0.04783333128852907</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1709316131.576362</v>
+        <v>1971607512.082561</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1341013873870676</v>
+        <v>0.1216834992778933</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02469735357727828</v>
+        <v>0.02422871443300172</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1117475242.530146</v>
+        <v>1146012732.077622</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1802367202389279</v>
+        <v>0.132818726867716</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03729780132719853</v>
+        <v>0.03946452819297577</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2272823646.260184</v>
+        <v>3146798911.773362</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1466477366182935</v>
+        <v>0.1628058676592529</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03698715060620863</v>
+        <v>0.02638414327545742</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3256339985.012636</v>
+        <v>2632941530.675898</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1075743651672412</v>
+        <v>0.1029564804280395</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03083197616002567</v>
+        <v>0.03860169857087972</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2132586387.231383</v>
+        <v>1522974429.999641</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1125610972303844</v>
+        <v>0.1032315465522534</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0346720451769742</v>
+        <v>0.05606224759023925</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1293985767.551044</v>
+        <v>1955226981.2158</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1836369861412046</v>
+        <v>0.170102200629852</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0539926059200878</v>
+        <v>0.06005623060241397</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2751676602.833617</v>
+        <v>1873542399.996371</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09724893755649686</v>
+        <v>0.09247928023447693</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04019017408850965</v>
+        <v>0.04280329969868522</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3235113236.458043</v>
+        <v>3471289989.485134</v>
       </c>
       <c r="F93" t="n">
-        <v>0.105897131688635</v>
+        <v>0.09115735125228108</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03474211586772414</v>
+        <v>0.03772220338632576</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2069692594.135544</v>
+        <v>1731932335.123158</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1593103284900743</v>
+        <v>0.1332296453359715</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04223557459540221</v>
+        <v>0.03616681357153841</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2304984635.640871</v>
+        <v>2235946223.822947</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1141234846318372</v>
+        <v>0.131348017778244</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04038843088548843</v>
+        <v>0.04512316300740674</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2175058107.63429</v>
+        <v>1698953436.91466</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1140361121680908</v>
+        <v>0.08749207183356986</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02983975814551844</v>
+        <v>0.03648103930794654</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3400752065.404061</v>
+        <v>4956937990.20356</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1588858630804469</v>
+        <v>0.1486466881511794</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02811337041676669</v>
+        <v>0.01933899063526152</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3323452730.812071</v>
+        <v>3067498752.238539</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08936705423088281</v>
+        <v>0.09428570254295043</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02772766686247289</v>
+        <v>0.03260263721854738</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2432963671.756629</v>
+        <v>2781151748.205411</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1271014032248834</v>
+        <v>0.1218063309721276</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03545678810039848</v>
+        <v>0.02249737784627152</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3191492320.596282</v>
+        <v>4811272581.35477</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1245387290008907</v>
+        <v>0.1516061444845812</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02254601600972763</v>
+        <v>0.02433289141495092</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2414098543.560028</v>
+        <v>2319803311.02738</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1757869122648613</v>
+        <v>0.1796057258138078</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04953103451095534</v>
+        <v>0.04900203984979559</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_347.xlsx
+++ b/output/fit_clients/fit_round_347.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1834671761.664451</v>
+        <v>1978894722.337823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09024656161530162</v>
+        <v>0.07093498672842168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02970303406061073</v>
+        <v>0.03354428330737726</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2368083214.41311</v>
+        <v>2047189620.0681</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1680948401118051</v>
+        <v>0.1271148358101455</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03763765461633992</v>
+        <v>0.04829374301311963</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4087074257.6207</v>
+        <v>5240076408.308214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1331871600660541</v>
+        <v>0.1544962242008478</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02682513756626271</v>
+        <v>0.03308955664764583</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>179</v>
+      </c>
+      <c r="J4" t="n">
+        <v>347</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4176709024.065029</v>
+        <v>3839813157.929097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09765058062788794</v>
+        <v>0.1033248311340011</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04086132602726529</v>
+        <v>0.03569122147358546</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>137</v>
+      </c>
+      <c r="J5" t="n">
+        <v>347</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2526556750.4908</v>
+        <v>2677557947.284382</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1134436547544673</v>
+        <v>0.1291845736835846</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03805668099429257</v>
+        <v>0.04538815409292495</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2635978588.127436</v>
+        <v>2990017623.926827</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1009546721470509</v>
+        <v>0.08884437217681536</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03134197524265096</v>
+        <v>0.03166079284945532</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2721875666.971169</v>
+        <v>3921565191.469878</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1803572354403201</v>
+        <v>0.180449044699979</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02058290990727335</v>
+        <v>0.02993062354026493</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>90</v>
+      </c>
+      <c r="J8" t="n">
+        <v>347</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2053554611.128401</v>
+        <v>1567274504.695493</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1466383901929618</v>
+        <v>0.128947652338588</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02689489462295041</v>
+        <v>0.03519362912686102</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5457970464.928133</v>
+        <v>4836381130.15202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1946654794345166</v>
+        <v>0.1621717988932189</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04692695943216312</v>
+        <v>0.04788079071810528</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>294</v>
+      </c>
+      <c r="J10" t="n">
+        <v>346</v>
+      </c>
+      <c r="K10" t="n">
+        <v>63.6517985482769</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4107357132.597148</v>
+        <v>3654797956.138126</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1336467208097063</v>
+        <v>0.1880523037570744</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03405316436636181</v>
+        <v>0.0458188786378139</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>142</v>
+      </c>
+      <c r="J11" t="n">
+        <v>347</v>
+      </c>
+      <c r="K11" t="n">
+        <v>74.41028605982845</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3234094407.324949</v>
+        <v>2566406242.55994</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1271611813245824</v>
+        <v>0.1691008481800535</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03636202043071785</v>
+        <v>0.0483768355711365</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4839928727.141267</v>
+        <v>3561640796.07479</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09205894544119589</v>
+        <v>0.1013715075191408</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01953547726625327</v>
+        <v>0.02245804041298331</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>180</v>
+      </c>
+      <c r="J13" t="n">
+        <v>346</v>
+      </c>
+      <c r="K13" t="n">
+        <v>60.94268725756469</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3694033266.584846</v>
+        <v>3785833605.186562</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1257654239090633</v>
+        <v>0.1581877909904302</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03998449424548492</v>
+        <v>0.03237221048922685</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>71</v>
+      </c>
+      <c r="J14" t="n">
+        <v>347</v>
+      </c>
+      <c r="K14" t="n">
+        <v>85.66078990997416</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1353709516.943407</v>
+        <v>1519957401.796404</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08807855407088831</v>
+        <v>0.07389671246614794</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03336409265279236</v>
+        <v>0.04264386794631413</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2549531127.560008</v>
+        <v>2526288496.894746</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07563110241174653</v>
+        <v>0.0903204365372812</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04110710227292157</v>
+        <v>0.04791598287664878</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5306465008.56856</v>
+        <v>4099612404.044612</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1393080081220419</v>
+        <v>0.1078467682187458</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04065590029472065</v>
+        <v>0.05194035497775899</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>164</v>
+      </c>
+      <c r="J17" t="n">
+        <v>346</v>
+      </c>
+      <c r="K17" t="n">
+        <v>66.43210240944578</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3951374744.772257</v>
+        <v>3429828416.544557</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1275825473627376</v>
+        <v>0.1334658300529929</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03244714567680523</v>
+        <v>0.0217013430115211</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>84</v>
+      </c>
+      <c r="J18" t="n">
+        <v>347</v>
+      </c>
+      <c r="K18" t="n">
+        <v>69.81334342242634</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1232345467.033942</v>
+        <v>840305494.4881132</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1396211686147793</v>
+        <v>0.1424275963515343</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02513646292518136</v>
+        <v>0.01908998022113712</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2635326659.617389</v>
+        <v>1896714149.784735</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1564534122912523</v>
+        <v>0.1181147917419934</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03155571510076029</v>
+        <v>0.03145282135644961</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2511685189.610378</v>
+        <v>2449731371.068305</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09288276152286634</v>
+        <v>0.06410404047333405</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03403037011672003</v>
+        <v>0.03110877137716105</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3866786791.938728</v>
+        <v>3768018965.691101</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1091287762835506</v>
+        <v>0.09309733043208526</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04121421809161366</v>
+        <v>0.0412772887519532</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>347</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1317494101.991849</v>
+        <v>1157433690.564719</v>
       </c>
       <c r="F23" t="n">
-        <v>0.138764335292767</v>
+        <v>0.148906863130865</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05431113802285129</v>
+        <v>0.04041313172526866</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1283,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2740691216.664401</v>
+        <v>2611323109.652981</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1137184648765876</v>
+        <v>0.1115253088823433</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03030220966877135</v>
+        <v>0.03482650752761755</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>103</v>
+      </c>
+      <c r="J24" t="n">
+        <v>346</v>
+      </c>
+      <c r="K24" t="n">
+        <v>34.41877727814087</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1044271730.847972</v>
+        <v>1343816776.962208</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1015880227116825</v>
+        <v>0.0898310719291581</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02245372233810458</v>
+        <v>0.02599550057371838</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1198108199.196257</v>
+        <v>1435124681.008052</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08144865811174352</v>
+        <v>0.1081921775665766</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0371720709073536</v>
+        <v>0.03557492770986281</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4599174256.273069</v>
+        <v>3716849317.662299</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1156248260397224</v>
+        <v>0.1077029844054916</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02608179126451974</v>
+        <v>0.01975767115143118</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>144</v>
+      </c>
+      <c r="J27" t="n">
+        <v>347</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2660103938.167414</v>
+        <v>2472037205.587523</v>
       </c>
       <c r="F28" t="n">
-        <v>0.102989987672383</v>
+        <v>0.1012003183196425</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03126621175904989</v>
+        <v>0.0395246458760925</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>78</v>
+      </c>
+      <c r="J28" t="n">
+        <v>345</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3637975505.077718</v>
+        <v>5919514772.160477</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1448144881961649</v>
+        <v>0.1501334744961872</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0335255315306237</v>
+        <v>0.03047708926956923</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>311</v>
+      </c>
+      <c r="J29" t="n">
+        <v>347</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1776817584.50129</v>
+        <v>2223952488.550623</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1397012714385199</v>
+        <v>0.1334917354693116</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02665054005899743</v>
+        <v>0.03193832829405616</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1227885792.015382</v>
+        <v>1068954786.789435</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07703183515620075</v>
+        <v>0.1005014786659934</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03446576425536059</v>
+        <v>0.04207977011478518</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1410449485.205696</v>
+        <v>1244597988.820179</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1174751498407134</v>
+        <v>0.1001884935692568</v>
       </c>
       <c r="G32" t="n">
-        <v>0.034283409175157</v>
+        <v>0.03161785744609717</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2726388245.022833</v>
+        <v>2395477047.927863</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1910232621575787</v>
+        <v>0.1538885384557732</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06103605923182071</v>
+        <v>0.04096156598550056</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1010794571.359141</v>
+        <v>1236897087.553816</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1211830119958871</v>
+        <v>0.09135138107793238</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01713979178720045</v>
+        <v>0.02068648320413062</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1026848502.0589</v>
+        <v>1299511811.662565</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1102804162876142</v>
+        <v>0.1084391711158442</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0296434967730414</v>
+        <v>0.03833606905496767</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3166600517.437562</v>
+        <v>2882178219.763248</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1632202720910093</v>
+        <v>0.1684365728620315</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0242573443451769</v>
+        <v>0.02022472501279928</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2372562537.726225</v>
+        <v>1822405499.69738</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08556919445122085</v>
+        <v>0.07138814819917094</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04234984821293592</v>
+        <v>0.04010225827512118</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1324519181.657371</v>
+        <v>1982922694.666385</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07543693482407898</v>
+        <v>0.1110799415184163</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03136428467999917</v>
+        <v>0.03580001831396699</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2079852161.393533</v>
+        <v>2123085595.834643</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1364421962821601</v>
+        <v>0.1458586148367625</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03013345987809197</v>
+        <v>0.0315361357188789</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1636585191.964016</v>
+        <v>1680847517.551392</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1558156330833441</v>
+        <v>0.1566262157799818</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04704055042867084</v>
+        <v>0.0455014803245735</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2135022843.994523</v>
+        <v>2258524147.148749</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1535583697975127</v>
+        <v>0.1444273862081443</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03462938650598581</v>
+        <v>0.03169652553788879</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2945928715.937566</v>
+        <v>4196508960.773391</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1050812532995607</v>
+        <v>0.09905939332700749</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0386212419285697</v>
+        <v>0.04227634594641479</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>150</v>
+      </c>
+      <c r="J42" t="n">
+        <v>347</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1869175938.840997</v>
+        <v>2061411391.729526</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1573233228257646</v>
+        <v>0.1502055231004073</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01974097949787139</v>
+        <v>0.0157799587689788</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1691131238.368209</v>
+        <v>2264250411.756188</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06910629830579228</v>
+        <v>0.07149379151012294</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02526134588832898</v>
+        <v>0.02511568918822077</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2044038073.140575</v>
+        <v>2437913256.931318</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1283383316989982</v>
+        <v>0.1942139321754834</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03935650567322199</v>
+        <v>0.04741922857385412</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3797025304.379086</v>
+        <v>3701868836.997341</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1355951486414893</v>
+        <v>0.1248924454656591</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05067730431294856</v>
+        <v>0.04130530591206574</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>209</v>
+      </c>
+      <c r="J46" t="n">
+        <v>346</v>
+      </c>
+      <c r="K46" t="n">
+        <v>63.83577541660851</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4644593434.458375</v>
+        <v>3635938858.072382</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1447916108293936</v>
+        <v>0.1555834151607428</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05838102816152897</v>
+        <v>0.03966241849520023</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>155</v>
+      </c>
+      <c r="J47" t="n">
+        <v>346</v>
+      </c>
+      <c r="K47" t="n">
+        <v>55.23006963809321</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4555707299.013248</v>
+        <v>3759444390.756828</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09278822545589749</v>
+        <v>0.07632879855009862</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02821275300137474</v>
+        <v>0.03092265726253402</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>173</v>
+      </c>
+      <c r="J48" t="n">
+        <v>347</v>
+      </c>
+      <c r="K48" t="n">
+        <v>70.34547573694607</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1785550115.222296</v>
+        <v>1678733620.718856</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1431785460672351</v>
+        <v>0.1598749357529418</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03400218601371368</v>
+        <v>0.04190765801555243</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4126577378.889638</v>
+        <v>4037611921.40806</v>
       </c>
       <c r="F50" t="n">
-        <v>0.113914243016537</v>
+        <v>0.165673803545539</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03860444094869325</v>
+        <v>0.04536059776381705</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>114</v>
+      </c>
+      <c r="J50" t="n">
+        <v>347</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1487209919.07418</v>
+        <v>1395061298.674231</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1659521163077794</v>
+        <v>0.1646368892511368</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03505290370552618</v>
+        <v>0.04010992180953547</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5029746137.373022</v>
+        <v>4689538361.469666</v>
       </c>
       <c r="F52" t="n">
-        <v>0.103464559949158</v>
+        <v>0.08653356591561617</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04495542875139258</v>
+        <v>0.05153148687328526</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>207</v>
+      </c>
+      <c r="J52" t="n">
+        <v>347</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3116840247.355516</v>
+        <v>3292841442.323014</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1804158648627437</v>
+        <v>0.1516011877799457</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02520083289591204</v>
+        <v>0.022085321423997</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3516474974.225374</v>
+        <v>4836696530.776081</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1068299738272134</v>
+        <v>0.111912642326744</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03561726783450901</v>
+        <v>0.04995138090303938</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>182</v>
+      </c>
+      <c r="J54" t="n">
+        <v>347</v>
+      </c>
+      <c r="K54" t="n">
+        <v>67.87258356091023</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4990571894.374368</v>
+        <v>3342179807.227376</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1466953361688008</v>
+        <v>0.1771051867054142</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03106557980816045</v>
+        <v>0.03046064190433746</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>166</v>
+      </c>
+      <c r="J55" t="n">
+        <v>345</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1202615961.42618</v>
+        <v>1704964142.117066</v>
       </c>
       <c r="F56" t="n">
-        <v>0.138367730021147</v>
+        <v>0.1016748086532721</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05580748399640068</v>
+        <v>0.05571604694828535</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4344745798.996509</v>
+        <v>3290608969.24487</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1275228143973467</v>
+        <v>0.1710646709313826</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01940530415675363</v>
+        <v>0.0209393159351722</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>142</v>
+      </c>
+      <c r="J57" t="n">
+        <v>345</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1160811002.614142</v>
+        <v>1452167301.253759</v>
       </c>
       <c r="F58" t="n">
-        <v>0.127313651938419</v>
+        <v>0.1374208745563201</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03527687977345254</v>
+        <v>0.03409284936155725</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5280566025.860302</v>
+        <v>4035472254.367728</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09439517029982121</v>
+        <v>0.09640042129390085</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04899834209773709</v>
+        <v>0.04487586484907793</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>167</v>
+      </c>
+      <c r="J59" t="n">
+        <v>347</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3154035709.167287</v>
+        <v>2275593889.895819</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1302929658600512</v>
+        <v>0.1399088593642304</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02221964584587617</v>
+        <v>0.02193330569088607</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>61</v>
+      </c>
+      <c r="J60" t="n">
+        <v>344</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2125207980.261613</v>
+        <v>2228300950.914656</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1154037064836245</v>
+        <v>0.11876558738053</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02101162844693507</v>
+        <v>0.03176846839259784</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1481080987.419878</v>
+        <v>1855719126.908891</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1247140779557889</v>
+        <v>0.1939594327288222</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0489154164356802</v>
+        <v>0.04479245961285675</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5464841545.817134</v>
+        <v>3479092060.785194</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1030454212207494</v>
+        <v>0.08753201285069999</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03669388511527985</v>
+        <v>0.03021482276774505</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>170</v>
+      </c>
+      <c r="J63" t="n">
+        <v>347</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3663977137.749246</v>
+        <v>3443289049.205047</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1863482286985572</v>
+        <v>0.1398841786067562</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02196274876446463</v>
+        <v>0.03235718545341995</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>172</v>
+      </c>
+      <c r="J64" t="n">
+        <v>346</v>
+      </c>
+      <c r="K64" t="n">
+        <v>55.11578553856127</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5665586974.230368</v>
+        <v>5498234800.264273</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1672328067789177</v>
+        <v>0.1423712625009854</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02209735576552163</v>
+        <v>0.02655115683166204</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>268</v>
+      </c>
+      <c r="J65" t="n">
+        <v>346</v>
+      </c>
+      <c r="K65" t="n">
+        <v>64.0475723674933</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3510434629.891205</v>
+        <v>4107455272.459446</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1097052057990216</v>
+        <v>0.1385427659557394</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03577455909339902</v>
+        <v>0.03418420003311162</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>171</v>
+      </c>
+      <c r="J66" t="n">
+        <v>347</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2511137322.382576</v>
+        <v>2366918091.009386</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08252688329022201</v>
+        <v>0.07110577541344366</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05124060100121209</v>
+        <v>0.03468265241009446</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5012650849.547867</v>
+        <v>4268309936.229831</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1528724344805426</v>
+        <v>0.1512997629093746</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04589196344816137</v>
+        <v>0.03424719167719147</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>189</v>
+      </c>
+      <c r="J68" t="n">
+        <v>346</v>
+      </c>
+      <c r="K68" t="n">
+        <v>62.66436464342112</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1710592250.242733</v>
+        <v>2337194229.851472</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1508431407202414</v>
+        <v>0.1565771704062968</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03958020259485955</v>
+        <v>0.05892335375608963</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3695438312.506012</v>
+        <v>3132469984.072817</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09517433611662203</v>
+        <v>0.07819079953262861</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04204373198581423</v>
+        <v>0.04473083078236154</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4644755348.768307</v>
+        <v>3711449782.837712</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1750870524368291</v>
+        <v>0.1465758289209252</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02094310957249469</v>
+        <v>0.03288106067443631</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>254</v>
+      </c>
+      <c r="J71" t="n">
+        <v>346</v>
+      </c>
+      <c r="K71" t="n">
+        <v>64.07426727290519</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2100370649.598754</v>
+        <v>1691525270.998638</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1067882561338487</v>
+        <v>0.08232216609425776</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04543415097824496</v>
+        <v>0.03676194591175171</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2567518501.303592</v>
+        <v>2653770861.720905</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08578496415026929</v>
+        <v>0.1117831763094118</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04461218902371288</v>
+        <v>0.04752435859158825</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="n">
+        <v>51.71004944996486</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3495562629.668592</v>
+        <v>3036416380.673702</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1847171653035899</v>
+        <v>0.1279708885935831</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02697833828306605</v>
+        <v>0.02905262931921315</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>94</v>
+      </c>
+      <c r="J74" t="n">
+        <v>344</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1894213056.118456</v>
+        <v>2316810161.340781</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1121762902245304</v>
+        <v>0.1603039609992335</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03539872376282403</v>
+        <v>0.03127296333312055</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4601601094.953759</v>
+        <v>3521370120.775591</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07740785257210402</v>
+        <v>0.1237230044109428</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02700885626866698</v>
+        <v>0.02997140915058525</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>164</v>
+      </c>
+      <c r="J76" t="n">
+        <v>346</v>
+      </c>
+      <c r="K76" t="n">
+        <v>57.65959436450188</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2273928912.057045</v>
+        <v>1522862688.657651</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1533931664489993</v>
+        <v>0.1158952083270676</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03004956559360102</v>
+        <v>0.0231959517699976</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4176924655.459338</v>
+        <v>4751148189.479854</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1226386191367794</v>
+        <v>0.09272447443827425</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04005434422071146</v>
+        <v>0.05283516825598171</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>173</v>
+      </c>
+      <c r="J78" t="n">
+        <v>346</v>
+      </c>
+      <c r="K78" t="n">
+        <v>64.21052991141772</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1169220854.291887</v>
+        <v>1755527072.46348</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1670803767902512</v>
+        <v>0.1282231906026927</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03960304215903628</v>
+        <v>0.0260989745903382</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3267,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3448313661.27497</v>
+        <v>4338170124.218916</v>
       </c>
       <c r="F80" t="n">
-        <v>0.104188549231469</v>
+        <v>0.1038243287080359</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0314948731676869</v>
+        <v>0.02680280139832392</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>170</v>
+      </c>
+      <c r="J80" t="n">
+        <v>346</v>
+      </c>
+      <c r="K80" t="n">
+        <v>50.77157900196008</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4007811823.048509</v>
+        <v>3939388726.868262</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09236651888791492</v>
+        <v>0.09049636519063677</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02364890926100314</v>
+        <v>0.02631026234196967</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>160</v>
+      </c>
+      <c r="J81" t="n">
+        <v>347</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3339,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4480618039.067955</v>
+        <v>4582758250.405246</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1494064116842983</v>
+        <v>0.1325438038553399</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02039544043436458</v>
+        <v>0.0275624072796928</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>247</v>
+      </c>
+      <c r="J82" t="n">
+        <v>346</v>
+      </c>
+      <c r="K82" t="n">
+        <v>64.96711858203271</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1845087644.660739</v>
+        <v>2150383588.901485</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1013805630299484</v>
+        <v>0.09915565818471257</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02964162278033619</v>
+        <v>0.02840978111104582</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1849189391.220452</v>
+        <v>1585265698.768791</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1019913907713654</v>
+        <v>0.1128652467776725</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04306969291822083</v>
+        <v>0.04201277143449955</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2964677608.643853</v>
+        <v>3158363902.638732</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1536826362396117</v>
+        <v>0.1378173154754218</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04783333128852907</v>
+        <v>0.04297256183183689</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1971607512.082561</v>
+        <v>1876167204.191157</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1216834992778933</v>
+        <v>0.1159998039674168</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02422871443300172</v>
+        <v>0.01664490099461741</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3516,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1146012732.077622</v>
+        <v>1432943069.687603</v>
       </c>
       <c r="F87" t="n">
-        <v>0.132818726867716</v>
+        <v>0.1210050290112279</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03946452819297577</v>
+        <v>0.04409878477842843</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3146798911.773362</v>
+        <v>3350422162.444606</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1628058676592529</v>
+        <v>0.110793810204673</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02638414327545742</v>
+        <v>0.03402346481336498</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2632941530.675898</v>
+        <v>2229480219.073009</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1029564804280395</v>
+        <v>0.1214579291165822</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03860169857087972</v>
+        <v>0.03619855892019275</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1522974429.999641</v>
+        <v>1624132285.286703</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1032315465522534</v>
+        <v>0.1262524797862054</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05606224759023925</v>
+        <v>0.05391262790230861</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1955226981.2158</v>
+        <v>2022186748.147028</v>
       </c>
       <c r="F91" t="n">
-        <v>0.170102200629852</v>
+        <v>0.1761817800720302</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06005623060241397</v>
+        <v>0.05464757607957876</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1873542399.996371</v>
+        <v>2149586686.048831</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09247928023447693</v>
+        <v>0.08168260359133221</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04280329969868522</v>
+        <v>0.0430834735429596</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3471289989.485134</v>
+        <v>3072673237.221995</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09115735125228108</v>
+        <v>0.1013794448946607</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03772220338632576</v>
+        <v>0.04389795119803396</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>160</v>
+      </c>
+      <c r="J93" t="n">
+        <v>345</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1731932335.123158</v>
+        <v>2400791492.181795</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1332296453359715</v>
+        <v>0.1412961616850114</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03616681357153841</v>
+        <v>0.03167024102729667</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2235946223.822947</v>
+        <v>2172594223.704819</v>
       </c>
       <c r="F95" t="n">
-        <v>0.131348017778244</v>
+        <v>0.09593045869411289</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04512316300740674</v>
+        <v>0.04522818152920476</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1698953436.91466</v>
+        <v>1678495791.51575</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08749207183356986</v>
+        <v>0.1376615278143534</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03648103930794654</v>
+        <v>0.032859703492995</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4956937990.20356</v>
+        <v>4554862617.357344</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1486466881511794</v>
+        <v>0.1454671295276518</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01933899063526152</v>
+        <v>0.0203017698592296</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>178</v>
+      </c>
+      <c r="J97" t="n">
+        <v>347</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3067498752.238539</v>
+        <v>2390480500.583012</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09428570254295043</v>
+        <v>0.1017259111043937</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03260263721854738</v>
+        <v>0.0233774288295283</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>87</v>
+      </c>
+      <c r="J98" t="n">
+        <v>345</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2781151748.205411</v>
+        <v>3374438965.931603</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1218063309721276</v>
+        <v>0.09689552135217749</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02249737784627152</v>
+        <v>0.03360038117634934</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>347</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4811272581.35477</v>
+        <v>3289871905.206816</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1516061444845812</v>
+        <v>0.1239242334007018</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02433289141495092</v>
+        <v>0.02459714536928886</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>157</v>
+      </c>
+      <c r="J100" t="n">
+        <v>345</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2319803311.02738</v>
+        <v>2750853157.227283</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1796057258138078</v>
+        <v>0.2040185010860869</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04900203984979559</v>
+        <v>0.04212707262839426</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
